--- a/public/templates/template-anggota.xlsx
+++ b/public/templates/template-anggota.xlsx
@@ -5,22 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bytadit\Downloads\PROKER KKN\bangunmulyo\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bytadit\Downloads\PROKER KKN\wlehe\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DF9FA-ED10-4D1D-BEF8-7BBA9E69B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6F5505-A4BE-4E5B-8FCC-526452287BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anggota Kelompok Sumber Matesih" sheetId="1" r:id="rId1"/>
+    <sheet name="Anggota Kelompok" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NIK</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Pekerjaan</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin: 1 = laki-laki; 2=perempuan</t>
-  </si>
-  <si>
-    <t>Jabatan:  {1:ketua, 2:bendahara; 3:sekretaris; 4:anggota; 5: kepala_desa}</t>
   </si>
   <si>
     <t>Aditya Bagus Pratama</t>
@@ -398,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +404,7 @@
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,12 +430,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3311111111</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -453,21 +447,13 @@
         <v>85677546778</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/templates/template-anggota.xlsx
+++ b/public/templates/template-anggota.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bytadit\Downloads\PROKER KKN\bangunmulyo\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bytadit\Downloads\Bangun Mulyo App FIX\[Offline] Bangun Mulyo App v1\apl\bangunmulyo\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904DF9FA-ED10-4D1D-BEF8-7BBA9E69B2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95BC04F-38AA-419A-8472-C6D1F3CEA12D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>NIK</t>
   </si>
@@ -44,12 +44,6 @@
   </si>
   <si>
     <t>Pekerjaan</t>
-  </si>
-  <si>
-    <t>Jenis Kelamin: 1 = laki-laki; 2=perempuan</t>
-  </si>
-  <si>
-    <t>Jabatan:  {1:ketua, 2:bendahara; 3:sekretaris; 4:anggota; 5: kepala_desa}</t>
   </si>
   <si>
     <t>Aditya Bagus Pratama</t>
@@ -398,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +404,7 @@
     <col min="4" max="4" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,12 +430,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3311111111</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -453,21 +447,13 @@
         <v>85677546778</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
